--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B47" s="65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B49" s="65">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B55" s="65">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B69" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B74" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B77" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B81" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B82" s="65">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B83" s="65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
